--- a/Entities/DB/SeedData/product/account.xlsx
+++ b/Entities/DB/SeedData/product/account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALBAB\Entities\DB\SeedData\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1F9059-485E-482F-883B-4A7A933C97DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF7DE52-3F6C-4452-9620-9DDC7D135566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22812" yWindow="4788" windowWidth="31104" windowHeight="13548"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="account" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>All Accounts</t>
   </si>
@@ -113,12 +113,33 @@
   </si>
   <si>
     <t>Miscellaneous revenues</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>KeyId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ParentId</t>
+  </si>
+  <si>
+    <t>Lvl</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>IsExpandable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -959,510 +980,709 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.29296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>3</v>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>3</v>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>2</v>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
         <v>17</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
         <v>18</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
         <v>18</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>4</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
         <v>17</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
         <v>16</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
         <v>22</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>3</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
+      <c r="F24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
         <v>23</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>4</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
+      <c r="F25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
         <v>23</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
+      <c r="F26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
         <v>23</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>4</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28">
         <v>23</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
         <v>22</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
+      <c r="F29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
         <v>28</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>4</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>2</v>
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
